--- a/DADOS_PROJETOS.xlsx
+++ b/DADOS_PROJETOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Desktop\TFG\mapa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A06C7D-1D73-44D0-8108-EC502601F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D83BB8-5EB4-44F0-8CDE-A620CBE84A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
   <si>
     <t>Nome</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Produto</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
     <t>Capacidade(kt/y)</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Ingenostrum - Total Eren</t>
   </si>
   <si>
-    <t>Conceito</t>
-  </si>
-  <si>
     <t>White Martins - Rio Grande do Sul</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>White Martins Jacareí, São Paulo</t>
   </si>
   <si>
-    <t>Contrução</t>
-  </si>
-  <si>
     <t>ALK</t>
   </si>
   <si>
@@ -144,9 +135,6 @@
     <t>Eletronuclear hydrogen project - Angra nuclear power plant (I e II)</t>
   </si>
   <si>
-    <t>DEMO</t>
-  </si>
-  <si>
     <t>CIPP (Ceara’s Pecem Industrial Port Complex) Hydrogen project</t>
   </si>
   <si>
@@ -177,10 +165,13 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
     <t>24.3</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>H2V</t>
   </si>
 </sst>
 </file>
@@ -216,8 +207,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +493,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,16 +519,16 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,13 +542,13 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>600</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>-3.53092803394662</v>
@@ -567,7 +559,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -576,13 +568,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3">
         <v>-3.53092803394662</v>
@@ -593,22 +585,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <v>-4.9447152022925298</v>
@@ -619,22 +611,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5">
         <v>-32.036714276494202</v>
@@ -645,22 +637,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6">
         <v>-21.834349756668999</v>
@@ -671,22 +663,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7">
         <v>-21.834349756668999</v>
@@ -697,22 +689,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8">
         <v>-3.5486625227480602</v>
@@ -723,22 +715,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>-8.3934681977897299</v>
@@ -749,22 +741,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10">
         <v>-12.7342961435807</v>
@@ -775,7 +767,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -784,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11">
         <v>-20.3103759796894</v>
@@ -801,22 +793,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <v>-19.746794386516999</v>
@@ -827,22 +819,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13">
         <v>-23.0019294506947</v>
@@ -853,22 +845,22 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
       </c>
       <c r="G14">
         <v>-23.304788352318599</v>
@@ -879,22 +871,22 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>-23.965834897207099</v>
@@ -905,22 +897,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16">
         <v>-23.0086285730379</v>
@@ -931,22 +923,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>1200</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17">
         <v>-3.5509580093111399</v>
@@ -957,22 +949,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>-8.3934681977897299</v>
@@ -983,7 +975,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -992,13 +984,13 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <v>-3.53092803394662</v>
